--- a/salidas/valores_estandarizados.xlsx
+++ b/salidas/valores_estandarizados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>distancefromhome</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>jobsatisfaction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>monthlyincome</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>yearssincelastpromotion</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>yearswithcurrmanager</t>
         </is>
@@ -484,15 +489,18 @@
         <v>1.541561584303715</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.395810535040497</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.15613242983928</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1.406288219990039</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>-0.681478414204876</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-1.160491092246585</v>
       </c>
     </row>
@@ -510,15 +518,18 @@
         <v>-0.6527496286093148</v>
       </c>
       <c r="E3" t="n">
+        <v>0.09657777054988127</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.6653984547347115</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.4912830524326529</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>-0.371592564027536</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>-0.04063776431182627</v>
       </c>
     </row>
@@ -536,15 +547,18 @@
         <v>-0.5430340679636634</v>
       </c>
       <c r="E4" t="n">
+        <v>0.9582573053330432</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.6653984547347115</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>2.72674444764656</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>-0.681478414204876</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.3206010962955159</v>
       </c>
     </row>
@@ -562,15 +576,18 @@
         <v>0.1152592959102455</v>
       </c>
       <c r="E5" t="n">
+        <v>-0.8881988406308752</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.15613242983928</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.3870371556608347</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1.487722537036504</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.2393255676718633</v>
       </c>
     </row>
@@ -588,15 +605,18 @@
         <v>-0.5430340679636634</v>
       </c>
       <c r="E6" t="n">
+        <v>0.09657777054988127</v>
+      </c>
+      <c r="F6" t="n">
         <v>-1.576163897021707</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.8838913351888658</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>-0.681478414204876</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.04063776431182627</v>
       </c>
     </row>
